--- a/Projects/24V Multiphase Buck/Research and Documentation/Datasheet Calculations.xlsx
+++ b/Projects/24V Multiphase Buck/Research and Documentation/Datasheet Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Logan\Documents\GitHub\MarsRoverHardware\Projects\24V Multiphase Buck\Research and Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCEA0F6-8064-4592-A039-E471D45037A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2378D33E-5678-43E7-B056-BA4C397BA8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{966D6099-656F-453C-A914-3EE759F28358}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="142">
   <si>
     <t>Frequency Selection</t>
   </si>
@@ -1154,6 +1154,24 @@
   </si>
   <si>
     <t>IC Power Dissipation - Dual FET</t>
+  </si>
+  <si>
+    <t>Kohm</t>
+  </si>
+  <si>
+    <t>RSENSE Actual</t>
+  </si>
+  <si>
+    <t>I RMS</t>
+  </si>
+  <si>
+    <t>Inductor Copper Losses</t>
+  </si>
+  <si>
+    <t>Inductor Core Losses</t>
+  </si>
+  <si>
+    <t>Power Dissipation</t>
   </si>
 </sst>
 </file>
@@ -2681,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE96006E-1CEB-49A4-90C3-274359D51C21}">
   <dimension ref="B4:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2723,7 +2741,7 @@
       <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="22">
         <f>C8/(K13+(C42/2))</f>
         <v>4.1228501056088471E-3</v>
       </c>
@@ -2733,14 +2751,13 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="11">
-        <f>(K11*(1-(K11/K9)))/(C41*K17)</f>
-        <v>2.3706794367265651</v>
+        <v>137</v>
+      </c>
+      <c r="G6" s="21">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -2750,14 +2767,14 @@
       <c r="C7" s="9"/>
       <c r="D7" s="3"/>
       <c r="F7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="11">
-        <f>G6*G5</f>
-        <v>9.7739559660728406E-3</v>
+        <v>5</v>
+      </c>
+      <c r="G7" s="22">
+        <f>(K11*(1-(K11/K9)))/(C41*K17)</f>
+        <v>2.3706794367265651</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -2770,14 +2787,14 @@
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="10">
-        <f>G5*(K13+(C42/2))</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="22">
+        <f>G7*G5</f>
+        <v>9.7739559660728406E-3</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -2800,6 +2817,16 @@
       <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="10">
+        <f>G5*(K13+(C42/2))</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2821,11 +2848,6 @@
       <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="3"/>
       <c r="J10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2837,15 +2859,11 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11">
-        <v>0.9</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="F11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="3"/>
       <c r="J11" s="1" t="s">
         <v>23</v>
       </c>
@@ -2863,13 +2881,13 @@
       <c r="C12" s="9"/>
       <c r="D12" s="3"/>
       <c r="F12" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G12">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>26</v>
@@ -2891,15 +2909,14 @@
       <c r="D13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="10">
-        <f>(K12*C38*(1-C38))/(G11*G12*K17)</f>
-        <v>7.4588103105416415E-5</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>30</v>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>31</v>
@@ -2922,6 +2939,16 @@
       <c r="D14" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="10">
+        <f>(K12*C38*(1-C38))/(G12*G13*K17)</f>
+        <v>7.4588103105416415E-5</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="J14" s="1" t="s">
         <v>33</v>
       </c>
@@ -2942,16 +2969,11 @@
       <c r="D15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="3"/>
       <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K15" s="2">
-        <f>G45</f>
+        <f>G46</f>
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -2969,20 +2991,16 @@
       <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="3"/>
       <c r="J16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K16" s="2">
-        <f>G45</f>
+        <f>G46</f>
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -3001,11 +3019,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G17">
-        <f>G16-G18</f>
-        <v>4.9999999999999975E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>9</v>
@@ -3023,11 +3040,11 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F18" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G18">
-        <f>G16*0.8</f>
-        <v>2.0000000000000004E-2</v>
+        <f>G17-G19</f>
+        <v>4.9999999999999975E-3</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>9</v>
@@ -3049,14 +3066,14 @@
       <c r="C19" s="9"/>
       <c r="D19" s="3"/>
       <c r="F19" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="11">
-        <f>G17/C42</f>
-        <v>7.8337999999999965E-4</v>
+        <v>44</v>
+      </c>
+      <c r="G19">
+        <f>G17*0.8</f>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="J19" s="18" t="s">
         <v>107</v>
@@ -3073,15 +3090,25 @@
         <v>49</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="F20" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="12">
-        <f>C42/(8*K17*G18)</f>
-        <v>1.1033090087908296E-4</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>51</v>
+      <c r="F20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="11">
+        <f>G18/C42</f>
+        <v>7.8337999999999965E-4</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" s="2">
+        <f>SQRT(K13^2 + C42^2/12)</f>
+        <v>15.112736249605021</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -3094,6 +3121,16 @@
       <c r="D21" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="12">
+        <f>C42/(8*K17*G19)</f>
+        <v>1.1033090087908296E-4</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
@@ -3106,11 +3143,6 @@
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
@@ -3122,27 +3154,22 @@
       <c r="D23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <f>K17/15</f>
         <v>24104.000000000004</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24">
-        <f>G20</f>
-        <v>1.1033090087908296E-4</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -3152,13 +3179,14 @@
       <c r="C25" s="9"/>
       <c r="D25" s="3"/>
       <c r="F25" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G25">
-        <v>13.3</v>
+        <f>G21</f>
+        <v>1.1033090087908296E-4</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -3167,13 +3195,13 @@
       </c>
       <c r="D26" s="5"/>
       <c r="F26" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="G26">
-        <v>5.0000000000000001E-3</v>
+        <v>13.3</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -3186,13 +3214,13 @@
       </c>
       <c r="D27" s="5"/>
       <c r="F27" s="4" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -3206,14 +3234,13 @@
         <v>6</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G28">
-        <f>0.8/K11</f>
-        <v>3.3333333333333333E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -3228,14 +3255,14 @@
         <v>3</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G29">
-        <f>(2*PI()*G23*G24*G25*G26)/(G27*G28)</f>
-        <v>16667.829746077987</v>
+        <f>0.8/K11</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -3249,14 +3276,14 @@
         <v>3</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G30">
-        <f>1/(2*PI()*G24*(K11/K13))</f>
-        <v>901.57733363793204</v>
+        <f>(2*PI()*G24*G25*G26*G27)/(G28*G29)</f>
+        <v>16667.829746077987</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -3271,26 +3298,26 @@
         <v>3</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G31">
-        <f>1/(2*PI()*G30*G29)</f>
-        <v>1.0591027392037699E-8</v>
+        <f>1/(2*PI()*G25*(K11/K13))</f>
+        <v>901.57733363793204</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F32" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G32">
-        <f>K17/2</f>
-        <v>180780.00000000003</v>
+        <f>1/(2*PI()*G31*G30)</f>
+        <v>1.0591027392037699E-8</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3299,15 +3326,15 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="3"/>
-      <c r="F33" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="10">
-        <f>1/(2*PI()*G29*G32)</f>
-        <v>5.2819063151895396E-11</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>51</v>
+      <c r="F33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33">
+        <f>K17/2</f>
+        <v>180780.00000000003</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="M33" s="11"/>
     </row>
@@ -3321,6 +3348,16 @@
       <c r="D34" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="F34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="10">
+        <f>1/(2*PI()*G30*G33)</f>
+        <v>5.2819063151895396E-11</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="J34" s="11"/>
       <c r="M34" s="11"/>
     </row>
@@ -3335,24 +3372,14 @@
       <c r="D35" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="29" t="s">
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F36" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
-      <c r="J35" s="11"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F36" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="32">
-        <f>G46</f>
-        <v>6.1000000000000004E-8</v>
-      </c>
-      <c r="H36" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31"/>
       <c r="M36" s="11"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3364,13 +3391,14 @@
       </c>
       <c r="D37" s="3"/>
       <c r="F37" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="34">
-        <v>0.125</v>
+        <v>79</v>
+      </c>
+      <c r="G37" s="32">
+        <f>G47</f>
+        <v>6.1000000000000004E-8</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="J37" s="11"/>
     </row>
@@ -3383,30 +3411,29 @@
         <v>0.58536585365853655</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="F38" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="G38" s="34"/>
-      <c r="H38" s="33"/>
+      <c r="F38" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="34">
+        <v>0.125</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="21">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="D39" s="5"/>
-      <c r="F39" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="G39" s="36">
-        <f>G36/G37</f>
-        <v>4.8800000000000003E-7</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>51</v>
-      </c>
+      <c r="F39" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="34"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
@@ -3414,10 +3441,20 @@
       </c>
       <c r="C40" s="21">
         <f>(K11*(1-C38))/(C39*K13*K17)</f>
-        <v>7.6452805683051869E-6</v>
+        <v>6.1162244546441482E-6</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>84</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="36">
+        <f>G37/G38</f>
+        <v>4.8800000000000003E-7</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3430,11 +3467,6 @@
       <c r="D41" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
@@ -3447,15 +3479,11 @@
       <c r="D42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" s="21">
-        <v>150</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="F42" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="3"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
@@ -3468,34 +3496,34 @@
         <v>3</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G43" s="21">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="22">
-        <f>K13+C42</f>
-        <v>21.382598483494601</v>
+      <c r="C44" s="23">
+        <f>K13+C42/2</f>
+        <v>18.191299241747299</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G44" s="21">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -3507,14 +3535,14 @@
         <v>9.0956496208736498E-2</v>
       </c>
       <c r="D45" s="5"/>
-      <c r="F45" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G45" s="9">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G45" s="21">
+        <v>114</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -3527,15 +3555,14 @@
       <c r="D46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G46" s="22">
-        <f>61*10^-9</f>
-        <v>6.1000000000000004E-8</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>30</v>
+      <c r="F46" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="9">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -3546,281 +3573,310 @@
         <f>C45/(50*C9)</f>
         <v>363.82598483494598</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="F47" s="35" t="s">
+      <c r="D47" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="22">
+        <f>61*10^-9</f>
+        <v>6.1000000000000004E-8</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="22">
+        <f>0.005*(15+(C42/2))</f>
+        <v>9.0956496208736498E-2</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="G47" s="21">
+      <c r="G48" s="21">
         <f>1200*10^-12</f>
         <v>1.2E-9</v>
       </c>
-      <c r="H47" s="33" t="s">
+      <c r="H48" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="12">
-        <f>0.005*(15+(C42/2))</f>
-        <v>9.0956496208736498E-2</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="F48" s="35" t="s">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="21">
+        <f>K20^2*C43</f>
+        <v>1.0140728984585579</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G49" s="22">
         <f>96*10^-9</f>
         <v>9.6000000000000013E-8</v>
       </c>
-      <c r="H48" s="33" t="s">
+      <c r="H49" s="33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F49" s="35" t="s">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" s="21"/>
+      <c r="D50" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="G49" s="21">
+      <c r="G50" s="21">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="10">
+        <f>C50+C49</f>
+        <v>1.0140728984585579</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="G51" s="38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="3"/>
-      <c r="F50" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="G50" s="38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H50" s="37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
+      <c r="C53" s="9"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="23">
-        <f>$K$10*(($G$36*4*$K$17)+$K$19)</f>
+      <c r="C54" s="23">
+        <f>$K$10*(($G$37*4*$K$17)+$K$19)</f>
         <v>4.7694732800000015</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="24" t="s">
+      <c r="F54" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C55" s="23">
         <v>40</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D55" s="25" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="24" t="s">
+      <c r="F55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G55" s="21">
+        <f>0.9+$G$46</f>
+        <v>0.9073</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C56" s="23">
         <v>29</v>
       </c>
-      <c r="D53" s="25" t="s">
+      <c r="D56" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="27">
-        <f>(C51*C53)+C52</f>
-        <v>178.31472512000005</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54" s="21">
-        <f>0.9+$G$45</f>
-        <v>0.9073</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F55" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G55" s="21">
+      <c r="G56" s="21">
         <f>30*10^-9</f>
         <v>3.0000000000000004E-8</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H56" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="3"/>
-      <c r="F56" s="4" t="s">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="27">
+        <f>(C54*C56)+C55</f>
+        <v>178.31472512000005</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G56" s="23">
-        <f>($K$13/2)^2*$G$45*$K$14</f>
+      <c r="G57" s="23">
+        <f>($K$13/2)^2*$G$46*$K$14</f>
         <v>0.24036585365853658</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="23">
-        <f>$K$10*(($G$36*2*$K$17)+$K$19)</f>
-        <v>2.4757366400000005</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G57" s="22">
-        <f>($K$10*$K$13/4)*($G$46*$G$54/(5.5-$G$49))+($K$10*$G$48)+($G$47*($K$10)^2)</f>
-        <v>5.3199531081081081E-6</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="23">
-        <v>40</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>109</v>
-      </c>
       <c r="F58" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G58" s="23">
-        <f>$G$57+$G$56</f>
-        <v>0.24037117361164467</v>
+        <v>133</v>
+      </c>
+      <c r="G58" s="22">
+        <f>($K$10*$K$13/4)*($G$47*$G$55/(5.5-$G$50))+($K$10*$G$49)+($G$48*($K$10)^2)</f>
+        <v>5.3199531081081081E-6</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="3"/>
+      <c r="F59" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="23">
+        <f>$G$58+$G$57</f>
+        <v>0.24037117361164467</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="23">
+        <f>$K$10*(($G$37*2*$K$17)+$K$19)</f>
+        <v>2.4757366400000005</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" s="27">
+        <f>($K$13/2)^2*$G$46*(1-$K$14)+$G$51*$K$13/2*$G$56*$K$17</f>
+        <v>0.25974524634146345</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="23">
+        <v>40</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C62" s="23">
         <v>29</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D62" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G59" s="27">
-        <f>($K$13/2)^2*$G$45*(1-$K$14)+$G$50*$K$13/2*$G$55*$K$17</f>
-        <v>0.25974524634146345</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="26" t="s">
+      <c r="F62" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" s="9"/>
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="27">
-        <f>(C57*C59)+C58</f>
+      <c r="C63" s="27">
+        <f>(C60*C62)+C61</f>
         <v>111.79636256000002</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D63" s="28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F61" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F62" s="4" t="s">
+      <c r="F63" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G62" s="21">
-        <f>0.9+$G$45</f>
+      <c r="G63" s="21">
+        <f>0.9+$G$46</f>
         <v>0.9073</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H63" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F63" s="4" t="s">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F64" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G63" s="21">
+      <c r="G64" s="21">
         <f>30*10^-9</f>
         <v>3.0000000000000004E-8</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H64" s="5" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F64" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G64" s="23">
-        <f>($K$13)^2*$G$45*$K$14</f>
-        <v>0.96146341463414631</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="65" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F65" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G65" s="22">
-        <f>($K$10*$K$13/2)*($G$46*$G$54/(5.5-$G$49))+($K$10*$G$48)+($G$47*($K$10)^2)</f>
-        <v>2.4031062162162158E-6</v>
+        <v>114</v>
+      </c>
+      <c r="G65" s="23">
+        <f>($K$13)^2*$G$46*$K$14</f>
+        <v>0.96146341463414631</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>105</v>
@@ -3828,25 +3884,37 @@
     </row>
     <row r="66" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F66" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G66" s="23">
-        <f>G64+G65</f>
-        <v>0.96146581774036255</v>
+        <v>116</v>
+      </c>
+      <c r="G66" s="22">
+        <f>($K$10*$K$13/2)*($G$47*$G$55/(5.5-$G$50))+($K$10*$G$49)+($G$48*($K$10)^2)</f>
+        <v>2.4031062162162158E-6</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="67" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G67" s="23">
+        <f>G65+G66</f>
+        <v>0.96146581774036255</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F68" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G67" s="27">
-        <f>($K$13)^2*$G$45*(1-$K$14)+$G$50*$K$13*$G$55*$K$17</f>
+      <c r="G68" s="27">
+        <f>($K$13)^2*$G$46*(1-$K$14)+$G$51*$K$13*$G$56*$K$17</f>
         <v>0.86000878536585379</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4927,12 +4995,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5159,15 +5224,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8004C31E-2F17-41F7-960F-5BE2F964BB20}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1625227-AAC1-4055-9ED3-B806F9ACE344}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5192,10 +5261,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1625227-AAC1-4055-9ED3-B806F9ACE344}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8004C31E-2F17-41F7-960F-5BE2F964BB20}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>